--- a/trunk/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/schedule.xlsx
+++ b/trunk/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/schedule.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name=" schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="master" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Month</t>
   </si>
@@ -65,16 +65,26 @@
     <t>TIME</t>
   </si>
   <si>
+    <t>Document</t>
+  </si>
+  <si>
     <t xml:space="preserve">Activites
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
  '-
 '-
 '-
 </t>
   </si>
   <si>
-    <t>Document
+    <t xml:space="preserve">
 '-
 '-</t>
+  </si>
+  <si>
+    <t>Documents</t>
   </si>
 </sst>
 </file>
@@ -291,21 +301,15 @@
     <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,6 +318,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -623,7 +633,7 @@
   <dimension ref="B2:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,286 +1207,330 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K18"/>
+  <dimension ref="C2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="E2" s="20" t="s">
+    <row r="2" spans="3:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="F2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="3">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>5</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>6</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>7</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>8</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="18" t="s">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="17">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="15">
         <v>41596</v>
       </c>
-      <c r="F4" s="17">
-        <f>E4+7</f>
+      <c r="G4" s="15">
+        <f t="shared" ref="G4:L4" si="0">F4+7</f>
         <v>41603</v>
       </c>
-      <c r="G4" s="17">
-        <f>F4+7</f>
+      <c r="H4" s="15">
+        <f t="shared" si="0"/>
         <v>41610</v>
       </c>
-      <c r="H4" s="17">
-        <f>G4+7</f>
+      <c r="I4" s="15">
+        <f t="shared" si="0"/>
         <v>41617</v>
       </c>
-      <c r="I4" s="17">
-        <f>H4+7</f>
+      <c r="J4" s="15">
+        <f t="shared" si="0"/>
         <v>41624</v>
       </c>
-      <c r="J4" s="17">
-        <f>I4+7</f>
+      <c r="K4" s="15">
+        <f t="shared" si="0"/>
         <v>41631</v>
       </c>
-      <c r="K4" s="17">
-        <f>J4+7</f>
+      <c r="L4" s="15">
+        <f t="shared" si="0"/>
         <v>41638</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="3:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="C5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="D5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="17"/>
+      <c r="D6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="3:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="D7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="17"/>
+      <c r="D8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="3:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="C9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="D9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="15"/>
-      <c r="D10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="17"/>
+      <c r="D10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C11" s="14" t="s">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="3:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="C11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1"/>
+      <c r="D11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="15"/>
-      <c r="D12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="17"/>
+      <c r="D12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="3:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1"/>
+      <c r="D13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="17"/>
+      <c r="D14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C15" s="14" t="s">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="3:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="C15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1"/>
+      <c r="D15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="15"/>
-      <c r="D16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="17"/>
+      <c r="D16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="3:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="C17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1"/>
+      <c r="D17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C18" s="15"/>
-      <c r="D18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C18" s="17"/>
+      <c r="D18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>

--- a/trunk/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/schedule.xlsx
+++ b/trunk/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/schedule.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" schedule" sheetId="1" r:id="rId1"/>
     <sheet name="master" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>Month</t>
   </si>
@@ -86,12 +87,39 @@
   <si>
     <t>Documents</t>
   </si>
+  <si>
+    <t>Stage 1</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>meeting with customer</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>Stage 5</t>
+  </si>
+  <si>
+    <t>Stage 6</t>
+  </si>
+  <si>
+    <t>Stage 7</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +170,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +222,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -276,11 +348,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -325,6 +408,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,4 +1674,674 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:N46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="9.140625" style="23"/>
+    <col min="6" max="6" width="12.42578125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25" style="23" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="23" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H3" s="31">
+        <v>3</v>
+      </c>
+      <c r="I3" s="31">
+        <v>4</v>
+      </c>
+      <c r="J3" s="31">
+        <v>5</v>
+      </c>
+      <c r="K3" s="31">
+        <v>6</v>
+      </c>
+      <c r="L3" s="31">
+        <v>7</v>
+      </c>
+      <c r="M3" s="31">
+        <v>8</v>
+      </c>
+      <c r="N3" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="31">
+        <v>41596</v>
+      </c>
+      <c r="I4" s="31">
+        <f t="shared" ref="I4:N4" si="0">H4+7</f>
+        <v>41603</v>
+      </c>
+      <c r="J4" s="31">
+        <f t="shared" si="0"/>
+        <v>41610</v>
+      </c>
+      <c r="K4" s="31">
+        <f t="shared" si="0"/>
+        <v>41617</v>
+      </c>
+      <c r="L4" s="31">
+        <f t="shared" si="0"/>
+        <v>41624</v>
+      </c>
+      <c r="M4" s="31">
+        <f t="shared" si="0"/>
+        <v>41631</v>
+      </c>
+      <c r="N4" s="31">
+        <f t="shared" si="0"/>
+        <v>41638</v>
+      </c>
+    </row>
+    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E5" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+    </row>
+    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="40"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+    </row>
+    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E7" s="40"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+    </row>
+    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="40"/>
+      <c r="F8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+    </row>
+    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E9" s="40"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+    </row>
+    <row r="10" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="41"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+    </row>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="40"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="40"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+    </row>
+    <row r="14" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="40"/>
+      <c r="F14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="40"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+    </row>
+    <row r="16" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="41"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="40"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E20" s="40"/>
+      <c r="F20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E21" s="40"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E22" s="41"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E23" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E24" s="40"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E25" s="40"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E26" s="40"/>
+      <c r="F26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E27" s="40"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E28" s="41"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+    </row>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+    </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E30" s="40"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E31" s="40"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+    </row>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E32" s="40"/>
+      <c r="F32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+    </row>
+    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E33" s="40"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+    </row>
+    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E34" s="41"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+    </row>
+    <row r="35" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E35" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+    </row>
+    <row r="36" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E36" s="40"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+    </row>
+    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E37" s="40"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+    </row>
+    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E38" s="40"/>
+      <c r="F38" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+    </row>
+    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E39" s="40"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+    </row>
+    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E40" s="41"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+    </row>
+    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E41" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+    </row>
+    <row r="42" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E42" s="40"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+    </row>
+    <row r="43" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E43" s="40"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+    </row>
+    <row r="44" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E44" s="40"/>
+      <c r="F44" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+    </row>
+    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E45" s="40"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+    </row>
+    <row r="46" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E46" s="41"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
 </file>